--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-51/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-51/curvature_data.xlsx
@@ -379,58 +379,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53575.203024</v>
+        <v>53483.071019</v>
       </c>
       <c r="B2">
-        <v>-0.0003506091</v>
+        <v>-2.5894018491e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0002899564</v>
+        <v>-2.1737361844e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0001050021</v>
+        <v>-9.4207788868e-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53553.335023</v>
+        <v>53495.67102</v>
       </c>
       <c r="B3">
-        <v>-0.0007110758</v>
+        <v>-0.00017166022908</v>
       </c>
       <c r="C3">
-        <v>-0.0005997031</v>
+        <v>-0.00014161993551</v>
       </c>
       <c r="D3">
-        <v>-0.0002099782</v>
+        <v>-5.2333689571e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53586.267024</v>
+        <v>53507.53502</v>
       </c>
       <c r="B4">
-        <v>-0.0001601870118</v>
+        <v>-0.0003615241</v>
       </c>
       <c r="C4">
-        <v>-0.00013327796684</v>
+        <v>-0.0002979053</v>
       </c>
       <c r="D4">
-        <v>-5.332412083e-05</v>
+        <v>-0.0001037134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53495.67102</v>
+        <v>53519.335021</v>
       </c>
       <c r="B5">
-        <v>-0.00017166022908</v>
+        <v>-0.0005435846</v>
       </c>
       <c r="C5">
-        <v>-0.00014161993551</v>
+        <v>-0.0004510517</v>
       </c>
       <c r="D5">
-        <v>-5.2333689571e-05</v>
+        <v>-0.0001533933</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -449,86 +449,86 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53483.071019</v>
+        <v>53541.135022</v>
       </c>
       <c r="B7">
-        <v>-2.5894018491e-05</v>
+        <v>-0.0008901109</v>
       </c>
       <c r="C7">
-        <v>-2.1737361844e-05</v>
+        <v>-0.0007619653</v>
       </c>
       <c r="D7">
-        <v>-9.4207788868e-06</v>
+        <v>-0.0002563437</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53541.135022</v>
+        <v>53553.335023</v>
       </c>
       <c r="B8">
-        <v>-0.0008901109</v>
+        <v>-0.0007110758</v>
       </c>
       <c r="C8">
-        <v>-0.0007619653</v>
+        <v>-0.0005997031</v>
       </c>
       <c r="D8">
-        <v>-0.0002563437</v>
+        <v>-0.0002099782</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>53507.53502</v>
+        <v>53564.003023</v>
       </c>
       <c r="B9">
-        <v>-0.0003615241</v>
+        <v>-0.0005338805</v>
       </c>
       <c r="C9">
-        <v>-0.0002979053</v>
+        <v>-0.0004442905</v>
       </c>
       <c r="D9">
-        <v>-0.0001037134</v>
+        <v>-0.0001563237</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>53596.803025</v>
+        <v>53575.203024</v>
       </c>
       <c r="B10">
-        <v>-2.45158531e-05</v>
+        <v>-0.0003506091</v>
       </c>
       <c r="C10">
-        <v>-2.0714284492e-05</v>
+        <v>-0.0002899564</v>
       </c>
       <c r="D10">
-        <v>-9.449275639899999e-06</v>
+        <v>-0.0001050021</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>53564.003023</v>
+        <v>53586.267024</v>
       </c>
       <c r="B11">
-        <v>-0.0005338805</v>
+        <v>-0.0001601870118</v>
       </c>
       <c r="C11">
-        <v>-0.0004442905</v>
+        <v>-0.00013327796684</v>
       </c>
       <c r="D11">
-        <v>-0.0001563237</v>
+        <v>-5.332412083e-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>53519.335021</v>
+        <v>53596.803025</v>
       </c>
       <c r="B12">
-        <v>-0.0005435846</v>
+        <v>-2.45158531e-05</v>
       </c>
       <c r="C12">
-        <v>-0.0004510517</v>
+        <v>-2.0714284492e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0001533933</v>
+        <v>-9.449275639899999e-06</v>
       </c>
     </row>
   </sheetData>
